--- a/資料庫位置.xlsx
+++ b/資料庫位置.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laborbot\1120324_render\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2AD3E-CDF3-4C88-BAC3-3BD8DF574E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="19416" windowHeight="11016"/>
+    <workbookView xWindow="2736" yWindow="2388" windowWidth="13704" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -66,15 +72,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勞工局QA1100630</t>
+    <t>勞工局QA1110808</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,21 +398,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -414,7 +420,7 @@
     <col min="4" max="4" width="37.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,7 +445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -450,7 +456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -461,7 +467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>

--- a/資料庫位置.xlsx
+++ b/資料庫位置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laborbot\1120324_render\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laborbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2AD3E-CDF3-4C88-BAC3-3BD8DF574E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93F508-31EC-4AD2-810D-8317C046BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2736" yWindow="2388" windowWidth="13704" windowHeight="7800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18420" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勞工局QA1110808</t>
+    <t>勞工局QA1120510</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>

--- a/資料庫位置.xlsx
+++ b/資料庫位置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laborbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laborbot\1120324_render\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93F508-31EC-4AD2-810D-8317C046BC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A2F54-39DE-475F-AC82-51D93B73EBFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="18420" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="18432" windowHeight="11016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>勞工局QA1120510</t>
+    <t>勞工局QA1130220</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
